--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Kit</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>133.674629450388</v>
+        <v>141.7677283333333</v>
       </c>
       <c r="H2">
-        <v>133.674629450388</v>
+        <v>425.303185</v>
       </c>
       <c r="I2">
-        <v>0.8958161190826667</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="J2">
-        <v>0.8958161190826667</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.0210042851976</v>
+        <v>27.529371</v>
       </c>
       <c r="N2">
-        <v>27.0210042851976</v>
+        <v>82.58811299999999</v>
       </c>
       <c r="O2">
-        <v>0.9780198152265372</v>
+        <v>0.9749840804446944</v>
       </c>
       <c r="P2">
-        <v>0.9780198152265372</v>
+        <v>0.9749840804446944</v>
       </c>
       <c r="Q2">
-        <v>3612.022735201136</v>
+        <v>3902.776389115545</v>
       </c>
       <c r="R2">
-        <v>3612.022735201136</v>
+        <v>35124.9875020399</v>
       </c>
       <c r="S2">
-        <v>0.8761259152621833</v>
+        <v>0.8631194124664087</v>
       </c>
       <c r="T2">
-        <v>0.8761259152621833</v>
+        <v>0.8631194124664087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.674629450388</v>
+        <v>141.7677283333333</v>
       </c>
       <c r="H3">
-        <v>133.674629450388</v>
+        <v>425.303185</v>
       </c>
       <c r="I3">
-        <v>0.8958161190826667</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="J3">
-        <v>0.8958161190826667</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.303855696353896</v>
+        <v>0.06575333333333333</v>
       </c>
       <c r="N3">
-        <v>0.303855696353896</v>
+        <v>0.19726</v>
       </c>
       <c r="O3">
-        <v>0.01099799581344076</v>
+        <v>0.002328729313727272</v>
       </c>
       <c r="P3">
-        <v>0.01099799581344076</v>
+        <v>0.002328729313727273</v>
       </c>
       <c r="Q3">
-        <v>40.61779761649666</v>
+        <v>9.321700697011112</v>
       </c>
       <c r="R3">
-        <v>40.61779761649666</v>
+        <v>83.89530627309999</v>
       </c>
       <c r="S3">
-        <v>0.009852181927283921</v>
+        <v>0.00206154286759311</v>
       </c>
       <c r="T3">
-        <v>0.009852181927283921</v>
+        <v>0.00206154286759311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.674629450388</v>
+        <v>141.7677283333333</v>
       </c>
       <c r="H4">
-        <v>133.674629450388</v>
+        <v>425.303185</v>
       </c>
       <c r="I4">
-        <v>0.8958161190826667</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="J4">
-        <v>0.8958161190826667</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.303418980198135</v>
+        <v>0.3180093333333333</v>
       </c>
       <c r="N4">
-        <v>0.303418980198135</v>
+        <v>0.954028</v>
       </c>
       <c r="O4">
-        <v>0.010982188960022</v>
+        <v>0.01126266333629019</v>
       </c>
       <c r="P4">
-        <v>0.010982188960022</v>
+        <v>0.01126266333629019</v>
       </c>
       <c r="Q4">
-        <v>40.55941974620031</v>
+        <v>45.08346077546445</v>
       </c>
       <c r="R4">
-        <v>40.55941974620031</v>
+        <v>405.75114697918</v>
       </c>
       <c r="S4">
-        <v>0.00983802189319942</v>
+        <v>0.009970443165791947</v>
       </c>
       <c r="T4">
-        <v>0.00983802189319942</v>
+        <v>0.009970443165791947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.74056035266578</v>
+        <v>141.7677283333333</v>
       </c>
       <c r="H5">
-        <v>8.74056035266578</v>
+        <v>425.303185</v>
       </c>
       <c r="I5">
-        <v>0.05857457683575539</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="J5">
-        <v>0.05857457683575539</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.0210042851976</v>
+        <v>0.304321</v>
       </c>
       <c r="N5">
-        <v>27.0210042851976</v>
+        <v>0.912963</v>
       </c>
       <c r="O5">
-        <v>0.9780198152265372</v>
+        <v>0.01077787539515559</v>
       </c>
       <c r="P5">
-        <v>0.9780198152265372</v>
+        <v>0.01077787539515559</v>
       </c>
       <c r="Q5">
-        <v>236.1787187444103</v>
+        <v>43.14289685412834</v>
       </c>
       <c r="R5">
-        <v>236.1787187444103</v>
+        <v>388.286071687155</v>
       </c>
       <c r="S5">
-        <v>0.0572870968138781</v>
+        <v>0.009541277304199576</v>
       </c>
       <c r="T5">
-        <v>0.0572870968138781</v>
+        <v>0.009541277304199576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.74056035266578</v>
+        <v>141.7677283333333</v>
       </c>
       <c r="H6">
-        <v>8.74056035266578</v>
+        <v>425.303185</v>
       </c>
       <c r="I6">
-        <v>0.05857457683575539</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="J6">
-        <v>0.05857457683575539</v>
+        <v>0.8852651338396584</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.303855696353896</v>
+        <v>0.01825866666666667</v>
       </c>
       <c r="N6">
-        <v>0.303855696353896</v>
+        <v>0.054776</v>
       </c>
       <c r="O6">
-        <v>0.01099799581344076</v>
+        <v>0.0006466515101324398</v>
       </c>
       <c r="P6">
-        <v>0.01099799581344076</v>
+        <v>0.0006466515101324398</v>
       </c>
       <c r="Q6">
-        <v>2.655869052482515</v>
+        <v>2.588489695728889</v>
       </c>
       <c r="R6">
-        <v>2.655869052482515</v>
+        <v>23.29640726156</v>
       </c>
       <c r="S6">
-        <v>0.0006442029508137022</v>
+        <v>0.0005724580356650116</v>
       </c>
       <c r="T6">
-        <v>0.0006442029508137022</v>
+        <v>0.0005724580356650116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.74056035266578</v>
+        <v>8.953495</v>
       </c>
       <c r="H7">
-        <v>8.74056035266578</v>
+        <v>26.860485</v>
       </c>
       <c r="I7">
-        <v>0.05857457683575539</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="J7">
-        <v>0.05857457683575539</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.303418980198135</v>
+        <v>27.529371</v>
       </c>
       <c r="N7">
-        <v>0.303418980198135</v>
+        <v>82.58811299999999</v>
       </c>
       <c r="O7">
-        <v>0.010982188960022</v>
+        <v>0.9749840804446944</v>
       </c>
       <c r="P7">
-        <v>0.010982188960022</v>
+        <v>0.9749840804446944</v>
       </c>
       <c r="Q7">
-        <v>2.652051908566102</v>
+        <v>246.484085601645</v>
       </c>
       <c r="R7">
-        <v>2.652051908566102</v>
+        <v>2218.356770414805</v>
       </c>
       <c r="S7">
-        <v>0.0006432770710635935</v>
+        <v>0.05451124480001904</v>
       </c>
       <c r="T7">
-        <v>0.0006432770710635935</v>
+        <v>0.05451124480001904</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.45548350367181</v>
+        <v>8.953495</v>
       </c>
       <c r="H8">
-        <v>1.45548350367181</v>
+        <v>26.860485</v>
       </c>
       <c r="I8">
-        <v>0.009753874680700216</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="J8">
-        <v>0.009753874680700216</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>27.0210042851976</v>
+        <v>0.06575333333333333</v>
       </c>
       <c r="N8">
-        <v>27.0210042851976</v>
+        <v>0.19726</v>
       </c>
       <c r="O8">
-        <v>0.9780198152265372</v>
+        <v>0.002328729313727272</v>
       </c>
       <c r="P8">
-        <v>0.9780198152265372</v>
+        <v>0.002328729313727273</v>
       </c>
       <c r="Q8">
-        <v>39.32862598975039</v>
+        <v>0.5887221412333333</v>
       </c>
       <c r="R8">
-        <v>39.32862598975039</v>
+        <v>5.2984992711</v>
       </c>
       <c r="S8">
-        <v>0.009539482712961225</v>
+        <v>0.0001301989809266105</v>
       </c>
       <c r="T8">
-        <v>0.009539482712961225</v>
+        <v>0.0001301989809266105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.45548350367181</v>
+        <v>8.953495</v>
       </c>
       <c r="H9">
-        <v>1.45548350367181</v>
+        <v>26.860485</v>
       </c>
       <c r="I9">
-        <v>0.009753874680700216</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="J9">
-        <v>0.009753874680700216</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.303855696353896</v>
+        <v>0.3180093333333333</v>
       </c>
       <c r="N9">
-        <v>0.303855696353896</v>
+        <v>0.954028</v>
       </c>
       <c r="O9">
-        <v>0.01099799581344076</v>
+        <v>0.01126266333629019</v>
       </c>
       <c r="P9">
-        <v>0.01099799581344076</v>
+        <v>0.01126266333629019</v>
       </c>
       <c r="Q9">
-        <v>0.4422569535398061</v>
+        <v>2.847294975953333</v>
       </c>
       <c r="R9">
-        <v>0.4422569535398061</v>
+        <v>25.62565478358</v>
       </c>
       <c r="S9">
-        <v>0.0001072730729031668</v>
+        <v>0.000629694177103581</v>
       </c>
       <c r="T9">
-        <v>0.0001072730729031668</v>
+        <v>0.000629694177103581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.45548350367181</v>
+        <v>8.953495</v>
       </c>
       <c r="H10">
-        <v>1.45548350367181</v>
+        <v>26.860485</v>
       </c>
       <c r="I10">
-        <v>0.009753874680700216</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="J10">
-        <v>0.009753874680700216</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.303418980198135</v>
+        <v>0.304321</v>
       </c>
       <c r="N10">
-        <v>0.303418980198135</v>
+        <v>0.912963</v>
       </c>
       <c r="O10">
-        <v>0.010982188960022</v>
+        <v>0.01077787539515559</v>
       </c>
       <c r="P10">
-        <v>0.010982188960022</v>
+        <v>0.01077787539515559</v>
       </c>
       <c r="Q10">
-        <v>0.4416213203793091</v>
+        <v>2.724736551895</v>
       </c>
       <c r="R10">
-        <v>0.4416213203793091</v>
+        <v>24.522628967055</v>
       </c>
       <c r="S10">
-        <v>0.0001071188948358241</v>
+        <v>0.0006025897405642357</v>
       </c>
       <c r="T10">
-        <v>0.0001071188948358241</v>
+        <v>0.0006025897405642357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.35038512574988</v>
+        <v>8.953495</v>
       </c>
       <c r="H11">
-        <v>5.35038512574988</v>
+        <v>26.860485</v>
       </c>
       <c r="I11">
-        <v>0.03585542940087776</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="J11">
-        <v>0.03585542940087776</v>
+        <v>0.05590988190818072</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>27.0210042851976</v>
+        <v>0.01825866666666667</v>
       </c>
       <c r="N11">
-        <v>27.0210042851976</v>
+        <v>0.054776</v>
       </c>
       <c r="O11">
-        <v>0.9780198152265372</v>
+        <v>0.0006466515101324398</v>
       </c>
       <c r="P11">
-        <v>0.9780198152265372</v>
+        <v>0.0006466515101324398</v>
       </c>
       <c r="Q11">
-        <v>144.572779410345</v>
+        <v>0.1634788807066667</v>
       </c>
       <c r="R11">
-        <v>144.572779410345</v>
+        <v>1.47130992636</v>
       </c>
       <c r="S11">
-        <v>0.03506732043751462</v>
+        <v>3.615420956725144E-05</v>
       </c>
       <c r="T11">
-        <v>0.03506732043751462</v>
+        <v>3.615420956725144E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.35038512574988</v>
+        <v>1.669593333333333</v>
       </c>
       <c r="H12">
-        <v>5.35038512574988</v>
+        <v>5.00878</v>
       </c>
       <c r="I12">
-        <v>0.03585542940087776</v>
+        <v>0.01042573498967191</v>
       </c>
       <c r="J12">
-        <v>0.03585542940087776</v>
+        <v>0.01042573498967191</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.303855696353896</v>
+        <v>27.529371</v>
       </c>
       <c r="N12">
-        <v>0.303855696353896</v>
+        <v>82.58811299999999</v>
       </c>
       <c r="O12">
-        <v>0.01099799581344076</v>
+        <v>0.9749840804446944</v>
       </c>
       <c r="P12">
-        <v>0.01099799581344076</v>
+        <v>0.9749840804446944</v>
       </c>
       <c r="Q12">
-        <v>1.625744998146257</v>
+        <v>45.96285429245999</v>
       </c>
       <c r="R12">
-        <v>1.625744998146257</v>
+        <v>413.66568863214</v>
       </c>
       <c r="S12">
-        <v>0.0003943378624399746</v>
+        <v>0.01016492564186534</v>
       </c>
       <c r="T12">
-        <v>0.0003943378624399746</v>
+        <v>0.01016492564186534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.669593333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.00878</v>
+      </c>
+      <c r="I13">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="J13">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06575333333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.19726</v>
+      </c>
+      <c r="O13">
+        <v>0.002328729313727272</v>
+      </c>
+      <c r="P13">
+        <v>0.002328729313727273</v>
+      </c>
+      <c r="Q13">
+        <v>0.1097813269777778</v>
+      </c>
+      <c r="R13">
+        <v>0.9880319428</v>
+      </c>
+      <c r="S13">
+        <v>2.427871468760107E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.427871468760108E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.669593333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.00878</v>
+      </c>
+      <c r="I14">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="J14">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3180093333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.954028</v>
+      </c>
+      <c r="O14">
+        <v>0.01126266333629019</v>
+      </c>
+      <c r="P14">
+        <v>0.01126266333629019</v>
+      </c>
+      <c r="Q14">
+        <v>0.530946262871111</v>
+      </c>
+      <c r="R14">
+        <v>4.77851636584</v>
+      </c>
+      <c r="S14">
+        <v>0.0001174215432220556</v>
+      </c>
+      <c r="T14">
+        <v>0.0001174215432220556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.669593333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.00878</v>
+      </c>
+      <c r="I15">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="J15">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.304321</v>
+      </c>
+      <c r="N15">
+        <v>0.912963</v>
+      </c>
+      <c r="O15">
+        <v>0.01077787539515559</v>
+      </c>
+      <c r="P15">
+        <v>0.01077787539515559</v>
+      </c>
+      <c r="Q15">
+        <v>0.5080923127933333</v>
+      </c>
+      <c r="R15">
+        <v>4.57283081514</v>
+      </c>
+      <c r="S15">
+        <v>0.0001123672726215976</v>
+      </c>
+      <c r="T15">
+        <v>0.0001123672726215976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.35038512574988</v>
-      </c>
-      <c r="H13">
-        <v>5.35038512574988</v>
-      </c>
-      <c r="I13">
-        <v>0.03585542940087776</v>
-      </c>
-      <c r="J13">
-        <v>0.03585542940087776</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.303418980198135</v>
-      </c>
-      <c r="N13">
-        <v>0.303418980198135</v>
-      </c>
-      <c r="O13">
-        <v>0.010982188960022</v>
-      </c>
-      <c r="P13">
-        <v>0.010982188960022</v>
-      </c>
-      <c r="Q13">
-        <v>1.623408398522299</v>
-      </c>
-      <c r="R13">
-        <v>1.623408398522299</v>
-      </c>
-      <c r="S13">
-        <v>0.0003937711009231682</v>
-      </c>
-      <c r="T13">
-        <v>0.0003937711009231682</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.669593333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.00878</v>
+      </c>
+      <c r="I16">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="J16">
+        <v>0.01042573498967191</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.01825866666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.054776</v>
+      </c>
+      <c r="O16">
+        <v>0.0006466515101324398</v>
+      </c>
+      <c r="P16">
+        <v>0.0006466515101324398</v>
+      </c>
+      <c r="Q16">
+        <v>0.03048454814222222</v>
+      </c>
+      <c r="R16">
+        <v>0.27436093328</v>
+      </c>
+      <c r="S16">
+        <v>6.741817275311956E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.741817275311956E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.339851666666666</v>
+      </c>
+      <c r="H17">
+        <v>4.019555</v>
+      </c>
+      <c r="I17">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="J17">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.529371</v>
+      </c>
+      <c r="N17">
+        <v>82.58811299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.9749840804446944</v>
+      </c>
+      <c r="P17">
+        <v>0.9749840804446944</v>
+      </c>
+      <c r="Q17">
+        <v>36.88527361663499</v>
+      </c>
+      <c r="R17">
+        <v>331.9674625497149</v>
+      </c>
+      <c r="S17">
+        <v>0.008157371193861188</v>
+      </c>
+      <c r="T17">
+        <v>0.008157371193861188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.339851666666666</v>
+      </c>
+      <c r="H18">
+        <v>4.019555</v>
+      </c>
+      <c r="I18">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="J18">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06575333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.19726</v>
+      </c>
+      <c r="O18">
+        <v>0.002328729313727272</v>
+      </c>
+      <c r="P18">
+        <v>0.002328729313727273</v>
+      </c>
+      <c r="Q18">
+        <v>0.08809971325555553</v>
+      </c>
+      <c r="R18">
+        <v>0.7928974192999999</v>
+      </c>
+      <c r="S18">
+        <v>1.948371240424222E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.948371240424222E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.339851666666666</v>
+      </c>
+      <c r="H19">
+        <v>4.019555</v>
+      </c>
+      <c r="I19">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="J19">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3180093333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.954028</v>
+      </c>
+      <c r="O19">
+        <v>0.01126266333629019</v>
+      </c>
+      <c r="P19">
+        <v>0.01126266333629019</v>
+      </c>
+      <c r="Q19">
+        <v>0.4260853352822221</v>
+      </c>
+      <c r="R19">
+        <v>3.83476801754</v>
+      </c>
+      <c r="S19">
+        <v>9.423100059613908E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.423100059613908E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.339851666666666</v>
+      </c>
+      <c r="H20">
+        <v>4.019555</v>
+      </c>
+      <c r="I20">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="J20">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.304321</v>
+      </c>
+      <c r="N20">
+        <v>0.912963</v>
+      </c>
+      <c r="O20">
+        <v>0.01077787539515559</v>
+      </c>
+      <c r="P20">
+        <v>0.01077787539515559</v>
+      </c>
+      <c r="Q20">
+        <v>0.4077449990516666</v>
+      </c>
+      <c r="R20">
+        <v>3.669704991464999</v>
+      </c>
+      <c r="S20">
+        <v>9.01749393070779E-05</v>
+      </c>
+      <c r="T20">
+        <v>9.01749393070779E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.339851666666666</v>
+      </c>
+      <c r="H21">
+        <v>4.019555</v>
+      </c>
+      <c r="I21">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="J21">
+        <v>0.008366671166713384</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.01825866666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.054776</v>
+      </c>
+      <c r="O21">
+        <v>0.0006466515101324398</v>
+      </c>
+      <c r="P21">
+        <v>0.0006466515101324398</v>
+      </c>
+      <c r="Q21">
+        <v>0.02446390496444444</v>
+      </c>
+      <c r="R21">
+        <v>0.22017514468</v>
+      </c>
+      <c r="S21">
+        <v>5.410320544736751E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.410320544736751E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.410879</v>
+      </c>
+      <c r="H22">
+        <v>19.232637</v>
+      </c>
+      <c r="I22">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="J22">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>27.529371</v>
+      </c>
+      <c r="N22">
+        <v>82.58811299999999</v>
+      </c>
+      <c r="O22">
+        <v>0.9749840804446944</v>
+      </c>
+      <c r="P22">
+        <v>0.9749840804446944</v>
+      </c>
+      <c r="Q22">
+        <v>176.487466427109</v>
+      </c>
+      <c r="R22">
+        <v>1588.387197843981</v>
+      </c>
+      <c r="S22">
+        <v>0.03903112634254012</v>
+      </c>
+      <c r="T22">
+        <v>0.03903112634254011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.410879</v>
+      </c>
+      <c r="H23">
+        <v>19.232637</v>
+      </c>
+      <c r="I23">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="J23">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06575333333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.19726</v>
+      </c>
+      <c r="O23">
+        <v>0.002328729313727272</v>
+      </c>
+      <c r="P23">
+        <v>0.002328729313727273</v>
+      </c>
+      <c r="Q23">
+        <v>0.4215366638466667</v>
+      </c>
+      <c r="R23">
+        <v>3.79382997462</v>
+      </c>
+      <c r="S23">
+        <v>9.322503811570879E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.322503811570879E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.410879</v>
+      </c>
+      <c r="H24">
+        <v>19.232637</v>
+      </c>
+      <c r="I24">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="J24">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3180093333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.954028</v>
+      </c>
+      <c r="O24">
+        <v>0.01126266333629019</v>
+      </c>
+      <c r="P24">
+        <v>0.01126266333629019</v>
+      </c>
+      <c r="Q24">
+        <v>2.038719356870667</v>
+      </c>
+      <c r="R24">
+        <v>18.348474211836</v>
+      </c>
+      <c r="S24">
+        <v>0.0004508734495764647</v>
+      </c>
+      <c r="T24">
+        <v>0.0004508734495764647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.410879</v>
+      </c>
+      <c r="H25">
+        <v>19.232637</v>
+      </c>
+      <c r="I25">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="J25">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.304321</v>
+      </c>
+      <c r="N25">
+        <v>0.912963</v>
+      </c>
+      <c r="O25">
+        <v>0.01077787539515559</v>
+      </c>
+      <c r="P25">
+        <v>0.01077787539515559</v>
+      </c>
+      <c r="Q25">
+        <v>1.950965108159</v>
+      </c>
+      <c r="R25">
+        <v>17.558685973431</v>
+      </c>
+      <c r="S25">
+        <v>0.0004314661384631038</v>
+      </c>
+      <c r="T25">
+        <v>0.0004314661384631037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.410879</v>
+      </c>
+      <c r="H26">
+        <v>19.232637</v>
+      </c>
+      <c r="I26">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="J26">
+        <v>0.04003257809577553</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.01825866666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.054776</v>
+      </c>
+      <c r="O26">
+        <v>0.0006466515101324398</v>
+      </c>
+      <c r="P26">
+        <v>0.0006466515101324398</v>
+      </c>
+      <c r="Q26">
+        <v>0.1170541027013333</v>
+      </c>
+      <c r="R26">
+        <v>1.053486924312</v>
+      </c>
+      <c r="S26">
+        <v>2.588712708012808E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.588712708012808E-05</v>
       </c>
     </row>
   </sheetData>
